--- a/Docs/lab2.xlsx
+++ b/Docs/lab2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HSE_HERNYA\БД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hisoka/HSE/Calc-master/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE016D0C-AE9E-4EFB-B309-80DC06811E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1BC2B3-CC99-3A4C-99C1-40DB11B58FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="153">
   <si>
     <t>Объект</t>
   </si>
@@ -390,12 +390,289 @@
   <si>
     <t>Код состава блюда</t>
   </si>
+  <si>
+    <t>Имя пользователя</t>
+  </si>
+  <si>
+    <t>Рост пользователя</t>
+  </si>
+  <si>
+    <t>Вес пользователя</t>
+  </si>
+  <si>
+    <t>Возраст пользователя</t>
+  </si>
+  <si>
+    <t>Пол пользователя</t>
+  </si>
+  <si>
+    <t>Код физической активности</t>
+  </si>
+  <si>
+    <t>Описание физической активности</t>
+  </si>
+  <si>
+    <t>Оценка физической активности</t>
+  </si>
+  <si>
+    <t>Код дневника веса</t>
+  </si>
+  <si>
+    <t>Код типа приема пищи</t>
+  </si>
+  <si>
+    <t>Дата и время приема пищи</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Название блюда</t>
+  </si>
+  <si>
+    <t>Код категории блюда</t>
+  </si>
+  <si>
+    <t>Название продукта</t>
+  </si>
+  <si>
+    <t>Код категории продукта</t>
+  </si>
+  <si>
+    <t>Код ингредиента</t>
+  </si>
+  <si>
+    <t>Входные данные пользователя</t>
+  </si>
+  <si>
+    <t>Блюда</t>
+  </si>
+  <si>
+    <t>Дневник веса</t>
+  </si>
+  <si>
+    <t>Ингредиенты</t>
+  </si>
+  <si>
+    <t>Категории блюда</t>
+  </si>
+  <si>
+    <t>Типы приемов пищи</t>
+  </si>
+  <si>
+    <t>Продукты</t>
+  </si>
+  <si>
+    <t>Категории продуктов</t>
+  </si>
+  <si>
+    <t>Код пользователя
+Имя
+Рост
+Вес
+Код физической активности
+Пол
+Возраст</t>
+  </si>
+  <si>
+    <t>Код пользователя
+Почта
+Пароль</t>
+  </si>
+  <si>
+    <t>Счетчик
+Короткий текст
+Числовой
+Числовой
+Числовой
+Короткий текст
+Числовой</t>
+  </si>
+  <si>
+    <t>Счетчик
+Короткий текст
+Короткий текст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6 символов
+15 символов
+Вещественное
+Вещественное
+Целое
+6 символов
+Вещественное
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6 символов
+20 символов
+20 символов
+</t>
+  </si>
+  <si>
+    <t>Код дневника веса
+Дата
+Вес
+Код пользователя</t>
+  </si>
+  <si>
+    <t>Счетчик
+Дата и время
+Числовой
+Числовой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6 Символов
+Вещественное
+Целое</t>
+  </si>
+  <si>
+    <t>Код физической активности
+Описание
+Оценка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Счетчик
+Короткий текст
+Числовой
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6 символов
+20 символов
+Вещественное
+</t>
+  </si>
+  <si>
+    <t>Код типа приема пищи
+Наименование
+Описание</t>
+  </si>
+  <si>
+    <t>6 символов
+20 символов
+20 символов</t>
+  </si>
+  <si>
+    <t>Код приема пищи
+Код типа приема пищи
+Дата
+Код пользователя
+Код блюда</t>
+  </si>
+  <si>
+    <t>Счетчик
+Числовой
+Дата и время
+Числовой
+Числовой</t>
+  </si>
+  <si>
+    <t>Код категории блюда
+Наименование
+Описание</t>
+  </si>
+  <si>
+    <t>Код блюда
+Название
+Код приема пищи
+Код категрии блюда
+Код ингредиента</t>
+  </si>
+  <si>
+    <t>Числовой
+Короткий текст
+Числовой
+Числовой
+Числовой</t>
+  </si>
+  <si>
+    <t>Код ингредиента
+Описание
+Код продукта
+Вес продукта
+Код блюда</t>
+  </si>
+  <si>
+    <t>Счетчик
+Короткий текст
+Числовой
+Числовой
+Числовой</t>
+  </si>
+  <si>
+    <t>6 символов
+20 символов
+Целое
+Вещественное
+Целое</t>
+  </si>
+  <si>
+    <t>6 символов
+15 символов
+6 символов
+Целое
+Целое</t>
+  </si>
+  <si>
+    <t>6 символов
+Целое
+Целое
+Целое</t>
+  </si>
+  <si>
+    <t>Код продукта
+Название
+Код категории продукта
+Калорийность</t>
+  </si>
+  <si>
+    <t>6 символов
+20 символов
+Целое
+Целое</t>
+  </si>
+  <si>
+    <t>Код категории продукта
+Наименование
+Описание</t>
+  </si>
+  <si>
+    <t>БлюдаПриемыПищи</t>
+  </si>
+  <si>
+    <t>Код приема пищи
+Код блюда</t>
+  </si>
+  <si>
+    <t>Числовой
+Числовой</t>
+  </si>
+  <si>
+    <t>Целое
+Целое</t>
+  </si>
+  <si>
+    <t>ИнгредиентыБлюда</t>
+  </si>
+  <si>
+    <t>Код блюда
+Код ингредиента</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +709,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -625,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,6 +952,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,68 +1030,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,21 +1319,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="7" max="10" width="29.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1347,20 @@
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1050,8 +1373,20 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1064,8 +1399,20 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="G3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1078,8 +1425,20 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1092,8 +1451,20 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="G5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,6 +1476,130 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1121,16 +1616,16 @@
       <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -1147,14 +1642,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="34" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1164,12 +1659,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
       <c r="B3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
@@ -1177,7 +1672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>87</v>
       </c>
@@ -1194,12 +1689,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
       <c r="B5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1207,7 +1702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>83</v>
       </c>
@@ -1225,12 +1720,12 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
@@ -1239,14 +1734,14 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1256,12 +1751,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
@@ -1269,7 +1764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>85</v>
       </c>
@@ -1286,12 +1781,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="8" t="s">
         <v>30</v>
       </c>
@@ -1325,14 +1820,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -1346,8 +1841,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1356,21 +1851,21 @@
       <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
       <c r="B3" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>87</v>
       </c>
@@ -1380,21 +1875,21 @@
       <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
       <c r="B5" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>83</v>
       </c>
@@ -1404,21 +1899,21 @@
       <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="35" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="36"/>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>29</v>
       </c>
@@ -1428,21 +1923,21 @@
       <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>85</v>
       </c>
@@ -1452,19 +1947,19 @@
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1485,25 +1980,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C885BC4-BC77-447E-BB61-6078C2F7F7EB}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="34" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="15"/>
-    <col min="8" max="8" width="30.42578125" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="23.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="24" customWidth="1"/>
+    <col min="6" max="7" width="9.1640625" style="12"/>
+    <col min="8" max="8" width="30.5" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1520,9 +2015,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>56</v>
@@ -1537,9 +2032,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
+    <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>56</v>
@@ -1554,9 +2049,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>70</v>
+    <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>56</v>
@@ -1571,9 +2066,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>72</v>
+    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>56</v>
@@ -1588,9 +2083,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
+    <row r="6" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
@@ -1605,9 +2100,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
+    <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>56</v>
@@ -1622,9 +2117,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
+    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>56</v>
@@ -1642,9 +2137,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>56</v>
@@ -1662,9 +2157,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>73</v>
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>58</v>
@@ -1682,9 +2177,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>74</v>
+    <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>56</v>
@@ -1702,9 +2197,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
+    <row r="12" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>59</v>
@@ -1719,9 +2214,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
+    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1737,9 +2232,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>75</v>
+    <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>58</v>
@@ -1754,9 +2249,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>79</v>
+    <row r="15" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -1769,9 +2264,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>80</v>
+    <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -1784,9 +2279,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>45</v>
+    <row r="17" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1799,9 +2294,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
+    <row r="18" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>47</v>
@@ -1814,9 +2309,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
+    <row r="19" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -1829,9 +2324,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
+    <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>56</v>
@@ -1846,9 +2341,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
+    <row r="21" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>56</v>
@@ -1863,9 +2358,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
+    <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>56</v>
@@ -1873,16 +2368,16 @@
       <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
+    <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>56</v>
@@ -1897,9 +2392,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>77</v>
+    <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>58</v>
@@ -1914,9 +2409,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
+    <row r="25" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>56</v>
@@ -1931,9 +2426,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
+    <row r="26" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>57</v>
@@ -1948,9 +2443,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
+    <row r="27" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>58</v>
@@ -1965,9 +2460,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>53</v>
+    <row r="28" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>58</v>
@@ -1982,9 +2477,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>54</v>
+    <row r="29" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
@@ -1999,9 +2494,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>55</v>
+    <row r="30" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>58</v>
@@ -2014,6 +2509,66 @@
       </c>
       <c r="E30" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2024,275 +2579,384 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38827AB7-153C-47C8-B095-4F934F360419}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="27.140625" customWidth="1"/>
+    <col min="1" max="3" width="27.1640625" customWidth="1"/>
+    <col min="7" max="9" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="G1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="21" t="s">
+      <c r="G2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="21" t="s">
+      <c r="C3" s="38"/>
+      <c r="G3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21" t="s">
+      <c r="C4" s="38"/>
+      <c r="G4" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17" t="s">
+      <c r="C5" s="38"/>
+      <c r="G5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="121" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="C6" s="39"/>
+      <c r="G6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16" t="s">
+      <c r="G7" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16" t="s">
+      <c r="C8" s="38"/>
+      <c r="G8" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16" t="s">
+      <c r="C9" s="38"/>
+      <c r="G9" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="121" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="C10" s="39"/>
+      <c r="G10" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="26" t="s">
+      <c r="G11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="18"/>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="26" t="s">
+      <c r="C12" s="38"/>
+      <c r="G12" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="26" t="s">
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="C14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16" t="s">
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="26" t="s">
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
+      <c r="B18" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="26" t="s">
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="C19" s="39"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16" t="s">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="16" t="s">
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16" t="s">
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="28" t="s">
+      <c r="C23" s="38"/>
+    </row>
+    <row r="24" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="C24" s="39"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="16" t="s">
+      <c r="C26" s="38"/>
+    </row>
+    <row r="27" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="16" t="s">
+      <c r="C27" s="38"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="16" t="s">
+      <c r="C28" s="38"/>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17" t="s">
+      <c r="C29" s="38"/>
+      <c r="E29" s="38"/>
+    </row>
+    <row r="30" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="C33" s="24"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="C30" s="39"/>
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="E31" s="38"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="E32" s="39"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="C34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Docs/lab2.xlsx
+++ b/Docs/lab2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hisoka/HSE/Calc-master/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HSE_HERNYA\Курсовая 2 курс\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1BC2B3-CC99-3A4C-99C1-40DB11B58FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EA36C5-6E77-487E-B456-C422829E4982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="190">
   <si>
     <t>Объект</t>
   </si>
@@ -667,12 +667,149 @@
     <t>Код блюда
 Код ингредиента</t>
   </si>
+  <si>
+    <t>Акторы</t>
+  </si>
+  <si>
+    <t>Краткое описание</t>
+  </si>
+  <si>
+    <t>Тригер</t>
+  </si>
+  <si>
+    <t>Основной поток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Альтернативый поток </t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Пользователь, Администратор</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя при заходе в приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открытие приложения </t>
+  </si>
+  <si>
+    <t>Удаления приема пищи</t>
+  </si>
+  <si>
+    <t>Нажатие кнопки удалить на элементе конкретного приема пищи</t>
+  </si>
+  <si>
+    <t>Аналогично происходит удаление объектов других типов.</t>
+  </si>
+  <si>
+    <t>Создание приема пищи</t>
+  </si>
+  <si>
+    <t>Нажатие кнопки добавить на странице всех приемов пищи</t>
+  </si>
+  <si>
+    <t>Аналогично происходит создание объектов других типов.</t>
+  </si>
+  <si>
+    <t>Регистрация нового пользователя при заходе в систему</t>
+  </si>
+  <si>
+    <t>Открытие приложения и нажатие кнопки Регистрация</t>
+  </si>
+  <si>
+    <t>1. После нажатия на кнопку регистрации,приложение перенаправит пользователя на специальную страницу регистрации.
+2. Система просит пользователя ввести почту, пароль и другие характеристики, такие как пол, возраст, рост, вес.
+3. Система проверит введенные данные
+4. Если данные корректны, система создаст новый объект в базе данных.
+5. Система перенаправит пользователя на главную страницу приложения.</t>
+  </si>
+  <si>
+    <t>1. Система, после нажатия на кнопку добавить, загрузить новую специальную страницу создания приема пищи.
+2. Пользователю будет дана возможность ввести характеристики объекта.
+3. Система проверит введенные данные.
+4. Система создаст новый объект в базе данных.
+5. Пользователь увидит созданный объект на страницу Приемы пищи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Система, после нажатия на кнопку удалить у конкретного объекта, определяет идентификатор этого объекта.
+2. Система проверяет наличие объекта с данным идентификатором в базе данных.
+3. Если объект найден, объект удалится из базы данных.
+4. Пользователь увидит обновленную страницу без данного объекта.
+</t>
+  </si>
+  <si>
+    <t>1. Если объект не найден, пользователь увидит сообщение об ошибке.
+2. Приложение перезагрузится.</t>
+  </si>
+  <si>
+    <t>1. Если введенные данные некорректны, то страница обновится, и пользователь получит возможность ввести данные еще раз.</t>
+  </si>
+  <si>
+    <t>Пользователь увидит обновленную страницу без данного объекта.</t>
+  </si>
+  <si>
+    <t>Пользователь получает доступ к приложению.</t>
+  </si>
+  <si>
+    <t>1. Если введенные данные некорректны, то страница обновится, и пользователь получит возможность ввести данные еще раз.
+2. Аналогично, если введенных данных нет в базе данных.</t>
+  </si>
+  <si>
+    <t>1. Система просит пользователя ввести почту и пароль.
+2. Система проверяет данные на корректность.
+3. Система проверяет наличие данных в базе данных.
+4. Все прошло успешно, пользователь получает доступ к приложению.</t>
+  </si>
+  <si>
+    <t>1. Если введенные данные некорректны или данная почта уже находится в базе данных, то страница обновится, и пользователь получит возможность ввести данные еще раз.</t>
+  </si>
+  <si>
+    <t>Изменение приема пищи</t>
+  </si>
+  <si>
+    <t>Нажатие кнопки редактировать на элементе конкретного объекта</t>
+  </si>
+  <si>
+    <t>1. Система, после нажатия на кнопку редактировать, сохранить идентификатор выбранного объекта.
+2. Система перенаправит пользователя на страницу редактирования.
+3. Пользователю будет дана возможность ввести характеристики объекта.
+4. Система проверит введенные данные.
+5. Система создаст новый объект по введенным данным.
+6. По идентификатору найдет выбранный объект в базе данных.
+7. Заменит поля выбранного объекта на поля нового объекта.
+8. Система  сохранит обновленный объект в базу данных и перенаправит пользователя на главную страницу приложения.</t>
+  </si>
+  <si>
+    <t>Пользователь увидит созданный объект на странице Приемы пищи.</t>
+  </si>
+  <si>
+    <t>Пользователь увидит измененный объект на странице Приемы пищи.</t>
+  </si>
+  <si>
+    <t>1. Если введенные данные некорректны, то страница обновится, и пользователь получит возможность ввести данные еще раз.
+2. Если объект не найден, пользователь увидит сообщение об ошибке.
+3. Приложение перезагрузится.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экспорт определенных данных </t>
+  </si>
+  <si>
+    <t>Нажатие кнопки экспорт на опреденной странице</t>
+  </si>
+  <si>
+    <t>1. После нажатия на кнопку, система создаст файл с отображаемой на текущей странице таблицей</t>
+  </si>
+  <si>
+    <t>У пользователя появился новый файл</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +863,20 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -920,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1037,6 +1188,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,20 +1491,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="7" max="10" width="29.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="7" max="10" width="29.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1556,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1582,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1608,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +1634,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1660,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G7" s="26" t="s">
         <v>117</v>
       </c>
@@ -1504,7 +1674,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="26" t="s">
         <v>113</v>
       </c>
@@ -1518,7 +1688,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9" s="26" t="s">
         <v>116</v>
       </c>
@@ -1532,7 +1702,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G10" s="26" t="s">
         <v>147</v>
       </c>
@@ -1546,7 +1716,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G11" s="26" t="s">
         <v>115</v>
       </c>
@@ -1560,7 +1730,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="26" t="s">
         <v>151</v>
       </c>
@@ -1574,7 +1744,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="26" t="s">
         <v>118</v>
       </c>
@@ -1588,7 +1758,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="26" t="s">
         <v>119</v>
       </c>
@@ -1616,16 +1786,16 @@
       <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>82</v>
       </c>
@@ -1659,7 +1829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="8" t="s">
         <v>81</v>
@@ -1672,7 +1842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>87</v>
       </c>
@@ -1689,7 +1859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="8" t="s">
         <v>81</v>
@@ -1702,7 +1872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>83</v>
       </c>
@@ -1720,7 +1890,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
         <v>78</v>
@@ -1734,7 +1904,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>29</v>
       </c>
@@ -1751,7 +1921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
@@ -1764,7 +1934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>85</v>
       </c>
@@ -1781,7 +1951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>78</v>
@@ -1814,20 +1984,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CADAAF9-A038-4D70-9A9D-1BBDE3DA0C48}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="1" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="55.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="55.5703125" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" style="46" customWidth="1"/>
+    <col min="17" max="17" width="55.5703125" customWidth="1"/>
+    <col min="19" max="19" width="27.42578125" style="46" customWidth="1"/>
+    <col min="20" max="20" width="55.5703125" customWidth="1"/>
+    <col min="22" max="22" width="27.42578125" style="46" customWidth="1"/>
+    <col min="23" max="23" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -1841,7 +2023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>82</v>
       </c>
@@ -1854,8 +2036,49 @@
       <c r="D2" s="35" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" s="44"/>
+      <c r="S2" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="44"/>
+      <c r="V2" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="8" t="s">
         <v>81</v>
@@ -1864,8 +2087,49 @@
         <v>34</v>
       </c>
       <c r="D3" s="36"/>
-    </row>
-    <row r="4" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="R3" s="44"/>
+      <c r="S3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="U3" s="44"/>
+      <c r="V3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="W3" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>87</v>
       </c>
@@ -1878,8 +2142,49 @@
       <c r="D4" s="35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="O4" s="44"/>
+      <c r="P4" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="R4" s="44"/>
+      <c r="S4" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="U4" s="44"/>
+      <c r="V4" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="W4" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="246" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="8" t="s">
         <v>81</v>
@@ -1888,8 +2193,49 @@
         <v>34</v>
       </c>
       <c r="D5" s="36"/>
-    </row>
-    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" s="44"/>
+      <c r="P5" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="R5" s="44"/>
+      <c r="S5" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="T5" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="U5" s="44"/>
+      <c r="V5" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="W5" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>83</v>
       </c>
@@ -1902,8 +2248,49 @@
       <c r="D6" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="O6" s="44"/>
+      <c r="P6" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="44"/>
+      <c r="S6" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="T6" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="44"/>
+      <c r="V6" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="W6" s="43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
         <v>78</v>
@@ -1912,8 +2299,44 @@
         <v>34</v>
       </c>
       <c r="D7" s="36"/>
-    </row>
-    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" s="44"/>
+      <c r="M7" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" s="44"/>
+      <c r="P7" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="R7" s="44"/>
+      <c r="S7" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="U7" s="44"/>
+      <c r="W7" s="44"/>
+    </row>
+    <row r="8" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>29</v>
       </c>
@@ -1927,7 +2350,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
@@ -1936,8 +2359,17 @@
         <v>34</v>
       </c>
       <c r="D9" s="36"/>
-    </row>
-    <row r="10" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="45"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="45"/>
+    </row>
+    <row r="10" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>85</v>
       </c>
@@ -1951,7 +2383,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>78</v>
@@ -1962,7 +2394,9 @@
       <c r="D11" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A8:A9"/>
@@ -1975,6 +2409,7 @@
     <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1986,19 +2421,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="24" customWidth="1"/>
-    <col min="6" max="7" width="9.1640625" style="12"/>
-    <col min="8" max="8" width="30.5" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="12"/>
+    <col min="1" max="1" width="23.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="24" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="12"/>
+    <col min="8" max="8" width="30.42578125" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2015,7 +2450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>46</v>
       </c>
@@ -2032,7 +2467,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>94</v>
       </c>
@@ -2049,7 +2484,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>95</v>
       </c>
@@ -2066,7 +2501,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>96</v>
       </c>
@@ -2083,7 +2518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>97</v>
       </c>
@@ -2100,7 +2535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>98</v>
       </c>
@@ -2117,7 +2552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>99</v>
       </c>
@@ -2137,7 +2572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>99</v>
       </c>
@@ -2157,7 +2592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>100</v>
       </c>
@@ -2177,7 +2612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>101</v>
       </c>
@@ -2197,7 +2632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>46</v>
       </c>
@@ -2214,7 +2649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>49</v>
       </c>
@@ -2232,7 +2667,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>50</v>
       </c>
@@ -2249,7 +2684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>102</v>
       </c>
@@ -2264,7 +2699,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>46</v>
       </c>
@@ -2279,7 +2714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>47</v>
       </c>
@@ -2294,7 +2729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>53</v>
       </c>
@@ -2309,7 +2744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>79</v>
       </c>
@@ -2324,7 +2759,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>103</v>
       </c>
@@ -2341,7 +2776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>104</v>
       </c>
@@ -2358,7 +2793,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>46</v>
       </c>
@@ -2375,7 +2810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>103</v>
       </c>
@@ -2392,7 +2827,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>105</v>
       </c>
@@ -2409,7 +2844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>106</v>
       </c>
@@ -2426,7 +2861,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>45</v>
       </c>
@@ -2443,7 +2878,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>107</v>
       </c>
@@ -2460,7 +2895,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>108</v>
       </c>
@@ -2477,7 +2912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>108</v>
       </c>
@@ -2494,7 +2929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>106</v>
       </c>
@@ -2511,62 +2946,62 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>45</v>
       </c>
@@ -2581,17 +3016,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38827AB7-153C-47C8-B095-4F934F360419}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="27.1640625" customWidth="1"/>
-    <col min="7" max="9" width="26.83203125" customWidth="1"/>
+    <col min="1" max="3" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="8" max="9" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2611,7 +3048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
@@ -2631,7 +3068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
       <c r="B3" s="15" t="s">
         <v>43</v>
@@ -2647,7 +3084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="15" t="s">
         <v>70</v>
@@ -2663,7 +3100,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="15" t="s">
         <v>72</v>
@@ -2679,7 +3116,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="121" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="120.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="14" t="s">
         <v>71</v>
@@ -2695,7 +3132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
@@ -2715,7 +3152,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="13" t="s">
         <v>43</v>
@@ -2731,7 +3168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="13" t="s">
         <v>44</v>
@@ -2747,7 +3184,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="121" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="120.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="13" t="s">
         <v>73</v>
@@ -2763,7 +3200,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>76</v>
       </c>
@@ -2783,7 +3220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -2799,21 +3236,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="38"/>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="39"/>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>78</v>
       </c>
@@ -2824,35 +3261,35 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="38"/>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="38"/>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="38"/>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="39"/>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>6</v>
       </c>
@@ -2863,35 +3300,35 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="38"/>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="38"/>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="38"/>
     </row>
-    <row r="24" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
       <c r="B24" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="39"/>
     </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>8</v>
       </c>
@@ -2902,21 +3339,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="38"/>
     </row>
-    <row r="27" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="38"/>
     </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="13" t="s">
         <v>53</v>
@@ -2924,7 +3361,7 @@
       <c r="C28" s="38"/>
       <c r="E28" s="37"/>
     </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="13" t="s">
         <v>54</v>
@@ -2932,7 +3369,7 @@
       <c r="C29" s="38"/>
       <c r="E29" s="38"/>
     </row>
-    <row r="30" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
       <c r="B30" s="14" t="s">
         <v>55</v>
@@ -2940,31 +3377,26 @@
       <c r="C30" s="39"/>
       <c r="E30" s="38"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="C31" s="18"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="C32" s="18"/>
       <c r="E32" s="39"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="C34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="A11:A14"/>
@@ -2973,6 +3405,11 @@
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="C7:C10"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="A20:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Docs/lab2.xlsx
+++ b/Docs/lab2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HSE_HERNYA\Курсовая 2 курс\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EA36C5-6E77-487E-B456-C422829E4982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E3FDA-70FA-4CD8-96B3-7FBE348D538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29685" yWindow="555" windowWidth="27270" windowHeight="14430" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="205">
   <si>
     <t>Объект</t>
   </si>
@@ -588,13 +588,6 @@
 Код ингредиента</t>
   </si>
   <si>
-    <t>Числовой
-Короткий текст
-Числовой
-Числовой
-Числовой</t>
-  </si>
-  <si>
     <t>Код ингредиента
 Описание
 Код продукта
@@ -602,27 +595,6 @@
 Код блюда</t>
   </si>
   <si>
-    <t>Счетчик
-Короткий текст
-Числовой
-Числовой
-Числовой</t>
-  </si>
-  <si>
-    <t>6 символов
-20 символов
-Целое
-Вещественное
-Целое</t>
-  </si>
-  <si>
-    <t>6 символов
-15 символов
-6 символов
-Целое
-Целое</t>
-  </si>
-  <si>
     <t>6 символов
 Целое
 Целое
@@ -731,13 +703,6 @@
 3. Система проверит введенные данные.
 4. Система создаст новый объект в базе данных.
 5. Пользователь увидит созданный объект на страницу Приемы пищи.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Система, после нажатия на кнопку удалить у конкретного объекта, определяет идентификатор этого объекта.
-2. Система проверяет наличие объекта с данным идентификатором в базе данных.
-3. Если объект найден, объект удалится из базы данных.
-4. Пользователь увидит обновленную страницу без данного объекта.
-</t>
   </si>
   <si>
     <t>1. Если объект не найден, пользователь увидит сообщение об ошибке.
@@ -803,6 +768,121 @@
   </si>
   <si>
     <t>У пользователя появился новый файл</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>Автогенерация
+Егор
+180
+70
+1
+M
+19</t>
+  </si>
+  <si>
+    <t>Автогенерация
+e1@mail.ru
+123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Автогенерация
+19.03.2023
+70
+0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Автогенерация
+Активные тренировки
+1.31</t>
+  </si>
+  <si>
+    <t>Автогенерация
+1
+20.03.2023 15:41
+1
+1</t>
+  </si>
+  <si>
+    <t>Автогенерация
+Завтрак
+Первый прием пищи</t>
+  </si>
+  <si>
+    <t>Код блюда
+Название
+Код приема пищи
+Код категрии блюда</t>
+  </si>
+  <si>
+    <t>Числовой
+Короткий текст
+Числовой
+Числовой</t>
+  </si>
+  <si>
+    <t>6 символов
+15 символов
+6 символов
+Целое</t>
+  </si>
+  <si>
+    <t>Автогенерация
+Яичница
+1
+1</t>
+  </si>
+  <si>
+    <t>Автогенерация
+Жареное
+Пожарили</t>
+  </si>
+  <si>
+    <t>1
+1</t>
+  </si>
+  <si>
+    <t>6 символов
+20 символов
+Целое
+Вещественное</t>
+  </si>
+  <si>
+    <t>Код ингредиента
+Описание
+Код продукта
+Вес продукта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Автогенерация
+Для блюда
+1
+70
+</t>
+  </si>
+  <si>
+    <t>Автогенерация
+Яйцо
+1
+50</t>
+  </si>
+  <si>
+    <t>Автогенерация
+Молочное
+Из курицы</t>
+  </si>
+  <si>
+    <t>1. Система, после нажатия на кнопку удалить у конкретного объекта, определяет идентификатор этого объекта.
+2. Система проверяет наличие объекта с данным идентификатором в базе данных.
+3. Если объект найден, объект удалится из базы данных.
+4. Пользователь увидит обновленную страницу без данного объекта.</t>
+  </si>
+  <si>
+    <t>Триггер</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,15 +1231,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,6 +1268,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1190,24 +1286,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,10 +1587,11 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="7" max="10" width="29.42578125" style="12" customWidth="1"/>
+    <col min="7" max="10" width="20.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1517,20 +1604,23 @@
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1543,20 +1633,23 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1569,20 +1662,23 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1595,20 +1691,23 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1621,20 +1720,23 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1647,129 +1749,156 @@
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="28" t="s">
+      <c r="H10" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J14" s="27" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>133</v>
+      <c r="K14" s="31" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1813,13 +1942,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="39" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1830,11 +1959,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
@@ -1843,13 +1972,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="35" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1860,11 +1989,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1873,13 +2002,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="35" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1891,11 +2020,11 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
@@ -1905,13 +2034,13 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="37" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1922,11 +2051,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
@@ -1935,13 +2064,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="35" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="35" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1952,11 +2081,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="8" t="s">
         <v>30</v>
       </c>
@@ -1986,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CADAAF9-A038-4D70-9A9D-1BBDE3DA0C48}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,18 +2124,18 @@
     <col min="1" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="55.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="34" customWidth="1"/>
     <col min="11" max="11" width="55.5703125" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="34" customWidth="1"/>
     <col min="14" max="14" width="55.5703125" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" style="34" customWidth="1"/>
     <col min="17" max="17" width="55.5703125" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" style="46" customWidth="1"/>
+    <col min="19" max="19" width="27.42578125" style="34" customWidth="1"/>
     <col min="20" max="20" width="55.5703125" customWidth="1"/>
-    <col min="22" max="22" width="27.42578125" style="46" customWidth="1"/>
-    <col min="23" max="23" width="55.5703125" customWidth="1"/>
+    <col min="22" max="22" width="27.42578125" style="34" customWidth="1"/>
+    <col min="23" max="23" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2024,7 +2153,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2033,104 +2162,104 @@
       <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q2" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="T2" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="W2" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="G2" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="O2" s="33"/>
+      <c r="P2" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="V2" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="G3" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q3" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="T3" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="W3" s="43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="D3" s="42"/>
+      <c r="G3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" s="33"/>
+      <c r="P3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" s="33"/>
+      <c r="S3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="U3" s="33"/>
+      <c r="V3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2139,104 +2268,104 @@
       <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="T4" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="U4" s="44"/>
-      <c r="V4" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="W4" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="246" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="G4" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" s="33"/>
+      <c r="P4" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="R4" s="33"/>
+      <c r="S4" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="33"/>
+      <c r="V4" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="W4" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
       <c r="B5" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="G5" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q5" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="T5" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="W5" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="D5" s="42"/>
+      <c r="G5" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="U5" s="33"/>
+      <c r="V5" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2245,99 +2374,99 @@
       <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="N6" s="43" t="s">
+      <c r="G6" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="33"/>
+      <c r="P6" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="O6" s="44"/>
-      <c r="P6" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q6" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="T6" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="U6" s="44"/>
-      <c r="V6" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="W6" s="43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="U6" s="33"/>
+      <c r="V6" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
       <c r="B7" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="G7" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="N7" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q7" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="T7" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="U7" s="44"/>
-      <c r="W7" s="44"/>
+      <c r="D7" s="42"/>
+      <c r="G7" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="O7" s="33"/>
+      <c r="P7" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="R7" s="33"/>
+      <c r="S7" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" s="33"/>
+      <c r="W7" s="33"/>
     </row>
     <row r="8" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2346,31 +2475,31 @@
       <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="J9" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="N9" s="45"/>
+      <c r="D9" s="42"/>
+      <c r="J9" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="35" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2379,27 +2508,22 @@
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -2407,6 +2531,11 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3044,24 +3173,24 @@
       <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="43" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>120</v>
       </c>
       <c r="I2" s="26" t="s">
@@ -3069,15 +3198,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="44"/>
       <c r="G3" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>121</v>
       </c>
       <c r="I3" s="26" t="s">
@@ -3085,15 +3214,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="44"/>
       <c r="G4" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>126</v>
       </c>
       <c r="I4" s="26" t="s">
@@ -3101,15 +3230,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="44"/>
       <c r="G5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>129</v>
       </c>
       <c r="I5" s="26" t="s">
@@ -3117,15 +3246,15 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="120.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="45"/>
       <c r="G6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>134</v>
       </c>
       <c r="I6" s="26" t="s">
@@ -3133,19 +3262,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="43" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>132</v>
       </c>
       <c r="I7" s="26" t="s">
@@ -3153,15 +3282,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="44"/>
       <c r="G8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>137</v>
       </c>
       <c r="I8" s="26" t="s">
@@ -3169,15 +3298,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="44"/>
       <c r="G9" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>136</v>
       </c>
       <c r="I9" s="26" t="s">
@@ -3185,207 +3314,207 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="120.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="45"/>
       <c r="G10" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>139</v>
+      <c r="H10" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="43" t="s">
         <v>74</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>144</v>
+      <c r="H11" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="44"/>
       <c r="G12" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="28" t="s">
-        <v>146</v>
+      <c r="H12" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="43" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="44"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="44"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="44"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="43" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="44"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="44"/>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="45"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="43" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="44"/>
     </row>
     <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="38"/>
+      <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="E28" s="37"/>
+      <c r="C28" s="44"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="C29" s="44"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="E30" s="38"/>
+      <c r="C30" s="45"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="C31" s="18"/>
-      <c r="E31" s="38"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="C32" s="18"/>
-      <c r="E32" s="39"/>
+      <c r="E32" s="45"/>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
@@ -3397,6 +3526,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="A11:A14"/>
@@ -3405,11 +3539,6 @@
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="A20:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
